--- a/REGULAR/FELICIDARIO, PAMELA.xlsx
+++ b/REGULAR/FELICIDARIO, PAMELA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\BUDGET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCB94F0-9D95-494C-979A-F9BD8686A68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9BFD94-70E4-4A41-BBB4-54369D5430BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -898,7 +898,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2350,25 +2349,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K139" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K140" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2675,7 +2674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2693,16 +2692,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K139"/>
+  <dimension ref="A2:K140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A56" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A55" activePane="bottomLeft"/>
       <selection activeCell="M8" sqref="M8"/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2711,11 +2710,11 @@
     <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
     <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
@@ -2869,7 +2868,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>22.375</v>
+        <v>24.875</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2879,7 +2878,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>41.375</v>
+        <v>42.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4057,13 +4056,15 @@
       <c r="B64" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C64" s="13"/>
+      <c r="C64" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D64" s="39"/>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G64" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H64" s="39"/>
       <c r="I64" s="9"/>
@@ -4073,24 +4074,36 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="40"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="13"/>
+      <c r="A65" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D65" s="39"/>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H65" s="39"/>
+      <c r="G65" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H65" s="39">
+        <v>1</v>
+      </c>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="20"/>
+      <c r="K65" s="49">
+        <v>44999</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
-      <c r="B66" s="20"/>
+      <c r="B66" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C66" s="13"/>
       <c r="D66" s="39"/>
       <c r="E66" s="9"/>
@@ -4102,10 +4115,14 @@
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="20"/>
+      <c r="K66" s="49">
+        <v>44988</v>
+      </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="40"/>
+      <c r="A67" s="40">
+        <v>45017</v>
+      </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
       <c r="D67" s="39"/>
@@ -4121,7 +4138,9 @@
       <c r="K67" s="20"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="40"/>
+      <c r="A68" s="40">
+        <v>45047</v>
+      </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
       <c r="D68" s="39"/>
@@ -4137,7 +4156,9 @@
       <c r="K68" s="20"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="40"/>
+      <c r="A69" s="40">
+        <v>45078</v>
+      </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
       <c r="D69" s="39"/>
@@ -4153,7 +4174,9 @@
       <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="40"/>
+      <c r="A70" s="40">
+        <v>45108</v>
+      </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
       <c r="D70" s="39"/>
@@ -4169,7 +4192,9 @@
       <c r="K70" s="20"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="40"/>
+      <c r="A71" s="40">
+        <v>45139</v>
+      </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
       <c r="D71" s="39"/>
@@ -4185,7 +4210,9 @@
       <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="40"/>
+      <c r="A72" s="40">
+        <v>45170</v>
+      </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
       <c r="D72" s="39"/>
@@ -4201,7 +4228,9 @@
       <c r="K72" s="20"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="40"/>
+      <c r="A73" s="40">
+        <v>45200</v>
+      </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
       <c r="D73" s="39"/>
@@ -4217,7 +4246,9 @@
       <c r="K73" s="20"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="40"/>
+      <c r="A74" s="40">
+        <v>45231</v>
+      </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
       <c r="D74" s="39"/>
@@ -4233,7 +4264,9 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="40"/>
+      <c r="A75" s="40">
+        <v>45261</v>
+      </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
@@ -4249,7 +4282,9 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="40"/>
+      <c r="A76" s="40">
+        <v>45292</v>
+      </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
       <c r="D76" s="39"/>
@@ -4265,7 +4300,9 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
+      <c r="A77" s="40">
+        <v>45323</v>
+      </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
       <c r="D77" s="39"/>
@@ -4281,7 +4318,9 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>45352</v>
+      </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
       <c r="D78" s="39"/>
@@ -4297,7 +4336,9 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45383</v>
+      </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
       <c r="D79" s="39"/>
@@ -4313,7 +4354,9 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45413</v>
+      </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
@@ -4329,7 +4372,9 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45444</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -4345,7 +4390,9 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45474</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -4361,7 +4408,9 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45505</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -4377,7 +4426,9 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45536</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -4393,7 +4444,9 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45566</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -4409,7 +4462,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45597</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -4425,7 +4480,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45627</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -4441,7 +4498,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45658</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -4457,7 +4516,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45689</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -4473,7 +4534,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45717</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -4489,7 +4552,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45748</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -5257,20 +5322,36 @@
       <c r="K138" s="20"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="41"/>
-      <c r="B139" s="15"/>
-      <c r="C139" s="42"/>
-      <c r="D139" s="43"/>
+      <c r="A139" s="40"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="39"/>
       <c r="E139" s="9"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H139" s="43"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="39"/>
       <c r="I139" s="9"/>
-      <c r="J139" s="12"/>
-      <c r="K139" s="15"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="20"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="41"/>
+      <c r="B140" s="15"/>
+      <c r="C140" s="42"/>
+      <c r="D140" s="43"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="43"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5287,10 +5368,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5313,7 +5394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5322,8 +5403,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>

--- a/REGULAR/FELICIDARIO, PAMELA.xlsx
+++ b/REGULAR/FELICIDARIO, PAMELA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9BFD94-70E4-4A41-BBB4-54369D5430BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -247,7 +246,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -945,7 +944,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -988,7 +987,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1052,7 +1051,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1112,7 +1111,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1178,7 +1177,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1241,7 +1240,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1339,7 +1338,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1398,7 +1397,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1463,7 +1462,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1506,7 +1505,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1581,7 +1580,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1767,7 +1766,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1833,7 +1832,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1891,7 +1890,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1957,7 +1956,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2013,7 +2012,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2088,7 +2087,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2131,7 +2130,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,7 +2196,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2253,7 +2252,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2349,25 +2348,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K140" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K140" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2674,7 +2673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2684,7 +2683,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2692,34 +2691,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A55" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A55" activePane="bottomLeft"/>
       <selection activeCell="M8" sqref="M8"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2742,7 +2741,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2764,7 +2763,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2786,7 +2785,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2794,7 +2793,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2807,7 +2806,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -2824,7 +2823,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2859,7 +2858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2878,12 +2877,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>42.875</v>
+        <v>41.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>47</v>
       </c>
@@ -2905,7 +2904,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43647</v>
       </c>
@@ -2925,7 +2924,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43708</v>
       </c>
@@ -2945,7 +2944,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43738</v>
       </c>
@@ -2965,7 +2964,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43769</v>
       </c>
@@ -2985,7 +2984,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43799</v>
       </c>
@@ -3005,7 +3004,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43830</v>
       </c>
@@ -3025,7 +3024,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>48</v>
       </c>
@@ -3043,7 +3042,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43861</v>
       </c>
@@ -3067,7 +3066,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>51</v>
@@ -3087,7 +3086,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43890</v>
       </c>
@@ -3111,7 +3110,7 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43921</v>
       </c>
@@ -3131,7 +3130,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43951</v>
       </c>
@@ -3151,7 +3150,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43982</v>
       </c>
@@ -3171,7 +3170,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>44012</v>
       </c>
@@ -3197,7 +3196,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>44043</v>
       </c>
@@ -3221,7 +3220,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>54</v>
@@ -3241,7 +3240,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44074</v>
       </c>
@@ -3261,7 +3260,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>44104</v>
       </c>
@@ -3281,7 +3280,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>44135</v>
       </c>
@@ -3307,7 +3306,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>58</v>
@@ -3327,7 +3326,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>44165</v>
       </c>
@@ -3347,7 +3346,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>44196</v>
       </c>
@@ -3371,7 +3370,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>55</v>
@@ -3393,7 +3392,7 @@
         <v>44186</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
         <v>49</v>
       </c>
@@ -3411,7 +3410,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>44227</v>
       </c>
@@ -3435,7 +3434,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>63</v>
@@ -3457,7 +3456,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>44242</v>
       </c>
@@ -3477,7 +3476,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="50" t="s">
         <v>65</v>
@@ -3495,7 +3494,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>44377</v>
       </c>
@@ -3515,7 +3514,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>44408</v>
       </c>
@@ -3539,7 +3538,7 @@
         <v>44393</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>54</v>
@@ -3559,7 +3558,7 @@
         <v>44399</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>44439</v>
       </c>
@@ -3579,7 +3578,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44469</v>
       </c>
@@ -3599,7 +3598,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44500</v>
       </c>
@@ -3623,7 +3622,7 @@
         <v>44482</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44530</v>
       </c>
@@ -3647,7 +3646,7 @@
         <v>44529</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44561</v>
       </c>
@@ -3667,7 +3666,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
         <v>50</v>
       </c>
@@ -3685,7 +3684,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44592</v>
       </c>
@@ -3705,7 +3704,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44620</v>
       </c>
@@ -3725,7 +3724,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44651</v>
       </c>
@@ -3749,7 +3748,7 @@
         <v>44630</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>55</v>
@@ -3771,7 +3770,7 @@
         <v>44676</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44681</v>
       </c>
@@ -3797,7 +3796,7 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44712</v>
       </c>
@@ -3821,7 +3820,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44742</v>
       </c>
@@ -3841,7 +3840,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44773</v>
       </c>
@@ -3867,7 +3866,7 @@
         <v>44763</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>55</v>
@@ -3889,7 +3888,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44804</v>
       </c>
@@ -3915,7 +3914,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44834</v>
       </c>
@@ -3941,7 +3940,7 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44865</v>
       </c>
@@ -3961,7 +3960,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44895</v>
       </c>
@@ -3985,7 +3984,7 @@
         <v>44887</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44896</v>
       </c>
@@ -4011,7 +4010,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>68</v>
       </c>
@@ -4029,7 +4028,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44927</v>
       </c>
@@ -4049,7 +4048,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44958</v>
       </c>
@@ -4073,7 +4072,7 @@
         <v>44973</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44986</v>
       </c>
@@ -4099,7 +4098,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>54</v>
@@ -4119,11 +4118,13 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>45017</v>
       </c>
-      <c r="B67" s="20"/>
+      <c r="B67" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C67" s="13"/>
       <c r="D67" s="39"/>
       <c r="E67" s="9"/>
@@ -4132,12 +4133,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H67" s="39"/>
+      <c r="H67" s="39">
+        <v>1</v>
+      </c>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="20"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K67" s="49">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>45047</v>
       </c>
@@ -4155,7 +4160,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>45078</v>
       </c>
@@ -4173,7 +4178,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>45108</v>
       </c>
@@ -4191,7 +4196,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>45139</v>
       </c>
@@ -4209,7 +4214,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>45170</v>
       </c>
@@ -4227,7 +4232,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>45200</v>
       </c>
@@ -4245,7 +4250,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>45231</v>
       </c>
@@ -4263,7 +4268,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>45261</v>
       </c>
@@ -4281,7 +4286,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>45292</v>
       </c>
@@ -4299,7 +4304,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>45323</v>
       </c>
@@ -4317,7 +4322,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45352</v>
       </c>
@@ -4335,7 +4340,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45383</v>
       </c>
@@ -4353,7 +4358,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45413</v>
       </c>
@@ -4371,7 +4376,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45444</v>
       </c>
@@ -4389,7 +4394,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45474</v>
       </c>
@@ -4407,7 +4412,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45505</v>
       </c>
@@ -4425,7 +4430,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45536</v>
       </c>
@@ -4443,7 +4448,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45566</v>
       </c>
@@ -4461,7 +4466,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45597</v>
       </c>
@@ -4479,7 +4484,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45627</v>
       </c>
@@ -4497,7 +4502,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45658</v>
       </c>
@@ -4515,7 +4520,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45689</v>
       </c>
@@ -4533,7 +4538,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45717</v>
       </c>
@@ -4551,7 +4556,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45748</v>
       </c>
@@ -4569,7 +4574,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4585,7 +4590,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4601,7 +4606,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4617,7 +4622,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4633,7 +4638,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4649,7 +4654,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4665,7 +4670,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4681,7 +4686,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4697,7 +4702,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4713,7 +4718,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4729,7 +4734,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4745,7 +4750,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4761,7 +4766,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4777,7 +4782,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4793,7 +4798,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4809,7 +4814,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4825,7 +4830,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4841,7 +4846,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4857,7 +4862,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4873,7 +4878,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -4889,7 +4894,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4905,7 +4910,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4921,7 +4926,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4937,7 +4942,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4953,7 +4958,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4969,7 +4974,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -4985,7 +4990,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5001,7 +5006,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5017,7 +5022,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5033,7 +5038,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5049,7 +5054,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5065,7 +5070,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5081,7 +5086,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5097,7 +5102,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5113,7 +5118,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5129,7 +5134,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5145,7 +5150,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5161,7 +5166,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5177,7 +5182,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5193,7 +5198,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5209,7 +5214,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5225,7 +5230,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5241,7 +5246,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5257,7 +5262,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5273,7 +5278,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5289,7 +5294,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5305,7 +5310,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5321,7 +5326,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5337,7 +5342,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="41"/>
       <c r="B140" s="15"/>
       <c r="C140" s="42"/>
@@ -5368,10 +5373,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5394,28 +5399,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -5428,7 +5433,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5457,7 +5462,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -5477,17 +5482,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5508,7 +5513,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5535,7 +5540,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5561,7 +5566,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5587,7 +5592,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5613,7 +5618,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5639,7 +5644,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5665,7 +5670,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5691,7 +5696,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5717,7 +5722,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5737,7 +5742,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5757,7 +5762,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5777,7 +5782,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5798,7 +5803,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5819,7 +5824,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5840,7 +5845,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5861,7 +5866,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5882,7 +5887,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5903,7 +5908,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5924,7 +5929,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5945,7 +5950,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5966,7 +5971,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5987,7 +5992,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6008,7 +6013,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6029,7 +6034,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6050,7 +6055,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6071,7 +6076,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6092,7 +6097,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6113,7 +6118,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6134,7 +6139,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6155,7 +6160,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6176,7 +6181,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6197,7 +6202,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6206,7 +6211,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6215,7 +6220,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6224,7 +6229,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6233,7 +6238,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6242,7 +6247,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6251,7 +6256,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6260,7 +6265,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6269,7 +6274,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6278,7 +6283,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6287,7 +6292,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6296,7 +6301,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6305,7 +6310,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6314,7 +6319,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6323,7 +6328,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6332,7 +6337,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6341,7 +6346,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6350,7 +6355,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6359,7 +6364,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6368,7 +6373,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6377,7 +6382,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6386,7 +6391,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6395,7 +6400,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6404,7 +6409,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6413,7 +6418,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6422,7 +6427,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6431,7 +6436,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6440,7 +6445,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6449,7 +6454,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6458,7 +6463,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/FELICIDARIO, PAMELA.xlsx
+++ b/REGULAR/FELICIDARIO, PAMELA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -162,9 +162,6 @@
     <t>SL EARNED</t>
   </si>
   <si>
-    <t>FELICIDARIO, PAMELA</t>
-  </si>
-  <si>
     <t>PERMANENT</t>
   </si>
   <si>
@@ -241,6 +238,15 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>FELICIDARIO, PAMELA CRUZAT</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>5/15,16/2023</t>
   </si>
 </sst>
 </file>
@@ -944,7 +950,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -987,7 +993,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1051,7 +1057,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1111,7 +1117,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1177,7 +1183,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1240,7 +1246,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1338,7 +1344,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1397,7 +1403,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1462,7 +1468,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1505,7 +1511,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1580,7 +1586,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1766,7 +1772,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1832,7 +1838,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,7 +1896,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1956,7 +1962,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2012,7 +2018,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2087,7 +2093,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2130,7 +2136,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2196,7 +2202,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2252,7 +2258,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2699,8 +2705,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A55" activePane="bottomLeft"/>
-      <selection activeCell="M8" sqref="M8"/>
-      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2723,7 +2729,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
@@ -2731,7 +2737,7 @@
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="59"/>
       <c r="H2" s="28" t="s">
@@ -2746,7 +2752,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
@@ -2768,14 +2774,14 @@
         <v>16</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
@@ -2867,7 +2873,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>24.875</v>
+        <v>24.125</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2877,14 +2883,14 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>41.875</v>
+        <v>43.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -3026,7 +3032,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
@@ -3047,7 +3053,7 @@
         <v>43861</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="13">
         <v>1.25</v>
@@ -3063,13 +3069,13 @@
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
       <c r="K18" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="39"/>
@@ -3083,7 +3089,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
       <c r="K19" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3091,7 +3097,7 @@
         <v>43890</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="13">
         <v>1.25</v>
@@ -3175,7 +3181,7 @@
         <v>44012</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="13">
         <v>1.25</v>
@@ -3201,7 +3207,7 @@
         <v>44043</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="13">
         <v>1.25</v>
@@ -3223,7 +3229,7 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
@@ -3237,7 +3243,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
       <c r="K26" s="49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3285,7 +3291,7 @@
         <v>44135</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="13">
         <v>1.25</v>
@@ -3309,7 +3315,7 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="39"/>
@@ -3323,7 +3329,7 @@
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
       <c r="K30" s="49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3351,7 +3357,7 @@
         <v>44196</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="13">
         <v>1.25</v>
@@ -3373,7 +3379,7 @@
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="39"/>
@@ -3394,7 +3400,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -3415,7 +3421,7 @@
         <v>44227</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="13">
         <v>1.25</v>
@@ -3431,13 +3437,13 @@
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
       <c r="K35" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="39">
@@ -3453,7 +3459,7 @@
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
       <c r="K36" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -3479,7 +3485,7 @@
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="39"/>
@@ -3519,7 +3525,7 @@
         <v>44408</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="13">
         <v>1.25</v>
@@ -3541,7 +3547,7 @@
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="39"/>
@@ -3603,7 +3609,7 @@
         <v>44500</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" s="13">
         <v>1.25</v>
@@ -3627,7 +3633,7 @@
         <v>44530</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45" s="13">
         <v>1.25</v>
@@ -3668,7 +3674,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -3729,7 +3735,7 @@
         <v>44651</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" s="13">
         <v>1.25</v>
@@ -3751,7 +3757,7 @@
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="39"/>
@@ -3775,7 +3781,7 @@
         <v>44681</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" s="13">
         <v>1.25</v>
@@ -3801,7 +3807,7 @@
         <v>44712</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C53" s="13">
         <v>1.25</v>
@@ -3845,7 +3851,7 @@
         <v>44773</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C55" s="13">
         <v>1.25</v>
@@ -3869,7 +3875,7 @@
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="39"/>
@@ -3893,7 +3899,7 @@
         <v>44804</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57" s="13">
         <v>1.25</v>
@@ -3919,7 +3925,7 @@
         <v>44834</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C58" s="13">
         <v>1.25</v>
@@ -3965,7 +3971,7 @@
         <v>44895</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C60" s="13">
         <v>1.25</v>
@@ -3989,7 +3995,7 @@
         <v>44896</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C61" s="13">
         <v>1.25</v>
@@ -4007,12 +4013,12 @@
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
       <c r="K61" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4053,7 +4059,7 @@
         <v>44958</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C64" s="13">
         <v>1.25</v>
@@ -4077,7 +4083,7 @@
         <v>44986</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C65" s="13">
         <v>1.25</v>
@@ -4101,7 +4107,7 @@
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="39"/>
@@ -4123,15 +4129,17 @@
         <v>45017</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C67" s="13"/>
+        <v>54</v>
+      </c>
+      <c r="C67" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D67" s="39"/>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G67" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H67" s="39">
         <v>1</v>
@@ -4146,9 +4154,13 @@
       <c r="A68" s="40">
         <v>45047</v>
       </c>
-      <c r="B68" s="20"/>
+      <c r="B68" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C68" s="13"/>
-      <c r="D68" s="39"/>
+      <c r="D68" s="39">
+        <v>2</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
       <c r="G68" s="13" t="str">
@@ -4158,7 +4170,9 @@
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="20"/>
+      <c r="K68" s="20" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">

--- a/REGULAR/FELICIDARIO, PAMELA.xlsx
+++ b/REGULAR/FELICIDARIO, PAMELA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72027B17-5724-4295-BC52-BCDF4B20B746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -247,12 +248,18 @@
   </si>
   <si>
     <t>5/15,16/2023</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>SINGAPORE 8/8-10/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -950,7 +957,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -993,7 +1000,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1057,7 +1064,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1117,7 +1124,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1183,7 +1190,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1246,7 +1253,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1344,7 +1351,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1403,7 +1410,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1468,7 +1475,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1511,7 +1518,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1586,7 +1593,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1772,7 +1779,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1838,7 +1845,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1896,7 +1903,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1962,7 +1969,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2018,7 +2025,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2093,7 +2100,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2136,7 +2143,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2202,7 +2209,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2258,7 +2265,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2337,7 +2344,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2354,25 +2361,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K140" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K140" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2679,7 +2686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2689,7 +2696,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2697,34 +2704,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A55" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B69" sqref="B69"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2747,7 +2754,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2769,7 +2776,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2791,7 +2798,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2799,7 +2806,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2812,7 +2819,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -2829,7 +2836,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2864,7 +2871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2873,7 +2880,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>24.125</v>
+        <v>23.625</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2883,12 +2890,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>43.125</v>
+        <v>45.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>46</v>
       </c>
@@ -2910,7 +2917,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43647</v>
       </c>
@@ -2930,7 +2937,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43708</v>
       </c>
@@ -2950,7 +2957,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43738</v>
       </c>
@@ -2970,7 +2977,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43769</v>
       </c>
@@ -2990,7 +2997,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43799</v>
       </c>
@@ -3010,7 +3017,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43830</v>
       </c>
@@ -3030,7 +3037,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>47</v>
       </c>
@@ -3048,7 +3055,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43861</v>
       </c>
@@ -3072,7 +3079,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>50</v>
@@ -3092,7 +3099,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43890</v>
       </c>
@@ -3116,7 +3123,7 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43921</v>
       </c>
@@ -3136,7 +3143,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43951</v>
       </c>
@@ -3156,7 +3163,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43982</v>
       </c>
@@ -3176,7 +3183,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>44012</v>
       </c>
@@ -3202,7 +3209,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44043</v>
       </c>
@@ -3226,7 +3233,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>53</v>
@@ -3246,7 +3253,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44074</v>
       </c>
@@ -3266,7 +3273,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>44104</v>
       </c>
@@ -3286,7 +3293,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>44135</v>
       </c>
@@ -3312,7 +3319,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>57</v>
@@ -3332,7 +3339,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>44165</v>
       </c>
@@ -3352,7 +3359,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>44196</v>
       </c>
@@ -3376,7 +3383,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>54</v>
@@ -3398,7 +3405,7 @@
         <v>44186</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
         <v>48</v>
       </c>
@@ -3416,7 +3423,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>44227</v>
       </c>
@@ -3440,7 +3447,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>62</v>
@@ -3462,7 +3469,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>44242</v>
       </c>
@@ -3482,7 +3489,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="50" t="s">
         <v>64</v>
@@ -3500,7 +3507,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>44377</v>
       </c>
@@ -3520,7 +3527,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>44408</v>
       </c>
@@ -3544,7 +3551,7 @@
         <v>44393</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>53</v>
@@ -3564,7 +3571,7 @@
         <v>44399</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>44439</v>
       </c>
@@ -3584,7 +3591,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44469</v>
       </c>
@@ -3604,7 +3611,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44500</v>
       </c>
@@ -3628,7 +3635,7 @@
         <v>44482</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44530</v>
       </c>
@@ -3652,7 +3659,7 @@
         <v>44529</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44561</v>
       </c>
@@ -3672,7 +3679,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="48" t="s">
         <v>49</v>
       </c>
@@ -3690,7 +3697,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44592</v>
       </c>
@@ -3710,7 +3717,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44620</v>
       </c>
@@ -3730,7 +3737,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44651</v>
       </c>
@@ -3754,7 +3761,7 @@
         <v>44630</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>54</v>
@@ -3776,7 +3783,7 @@
         <v>44676</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44681</v>
       </c>
@@ -3802,7 +3809,7 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44712</v>
       </c>
@@ -3826,7 +3833,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44742</v>
       </c>
@@ -3846,7 +3853,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44773</v>
       </c>
@@ -3872,7 +3879,7 @@
         <v>44763</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>54</v>
@@ -3894,7 +3901,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44804</v>
       </c>
@@ -3920,7 +3927,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44834</v>
       </c>
@@ -3946,7 +3953,7 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44865</v>
       </c>
@@ -3966,7 +3973,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44895</v>
       </c>
@@ -3990,7 +3997,7 @@
         <v>44887</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44896</v>
       </c>
@@ -4016,7 +4023,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>67</v>
       </c>
@@ -4034,7 +4041,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44927</v>
       </c>
@@ -4054,7 +4061,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44958</v>
       </c>
@@ -4078,7 +4085,7 @@
         <v>44973</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44986</v>
       </c>
@@ -4104,7 +4111,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>53</v>
@@ -4124,7 +4131,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>45017</v>
       </c>
@@ -4150,22 +4157,24 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>45047</v>
       </c>
       <c r="B68" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="13"/>
+      <c r="C68" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D68" s="39">
         <v>2</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G68" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
@@ -4174,31 +4183,37 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>45078</v>
       </c>
       <c r="B69" s="20"/>
-      <c r="C69" s="13"/>
+      <c r="C69" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D69" s="39"/>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G69" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H69" s="39"/>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>45108</v>
       </c>
-      <c r="B70" s="20"/>
+      <c r="B70" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="C70" s="13"/>
-      <c r="D70" s="39"/>
+      <c r="D70" s="39">
+        <v>3</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13" t="str">
@@ -4208,9 +4223,11 @@
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="20"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K70" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>45139</v>
       </c>
@@ -4228,7 +4245,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>45170</v>
       </c>
@@ -4246,7 +4263,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>45200</v>
       </c>
@@ -4264,7 +4281,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>45231</v>
       </c>
@@ -4282,7 +4299,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>45261</v>
       </c>
@@ -4300,7 +4317,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>45292</v>
       </c>
@@ -4318,7 +4335,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>45323</v>
       </c>
@@ -4336,7 +4353,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>45352</v>
       </c>
@@ -4354,7 +4371,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>45383</v>
       </c>
@@ -4372,7 +4389,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>45413</v>
       </c>
@@ -4390,7 +4407,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>45444</v>
       </c>
@@ -4408,7 +4425,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>45474</v>
       </c>
@@ -4426,7 +4443,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>45505</v>
       </c>
@@ -4444,7 +4461,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>45536</v>
       </c>
@@ -4462,7 +4479,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>45566</v>
       </c>
@@ -4480,7 +4497,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>45597</v>
       </c>
@@ -4498,7 +4515,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>45627</v>
       </c>
@@ -4516,7 +4533,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>45658</v>
       </c>
@@ -4534,7 +4551,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>45689</v>
       </c>
@@ -4552,7 +4569,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>45717</v>
       </c>
@@ -4570,7 +4587,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>45748</v>
       </c>
@@ -4588,7 +4605,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4604,7 +4621,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4620,7 +4637,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4636,7 +4653,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4652,7 +4669,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4668,7 +4685,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4684,7 +4701,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4700,7 +4717,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4716,7 +4733,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4732,7 +4749,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4748,7 +4765,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4764,7 +4781,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4780,7 +4797,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4796,7 +4813,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4812,7 +4829,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4828,7 +4845,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4844,7 +4861,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4860,7 +4877,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4876,7 +4893,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4892,7 +4909,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -4908,7 +4925,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4924,7 +4941,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4940,7 +4957,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4956,7 +4973,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4972,7 +4989,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4988,7 +5005,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5004,7 +5021,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5020,7 +5037,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5036,7 +5053,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5052,7 +5069,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5068,7 +5085,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5084,7 +5101,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5100,7 +5117,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5116,7 +5133,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5132,7 +5149,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5148,7 +5165,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5164,7 +5181,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5180,7 +5197,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5196,7 +5213,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5212,7 +5229,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5228,7 +5245,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5244,7 +5261,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5260,7 +5277,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5276,7 +5293,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5292,7 +5309,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5308,7 +5325,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5324,7 +5341,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5340,7 +5357,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5356,7 +5373,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="41"/>
       <c r="B140" s="15"/>
       <c r="C140" s="42"/>
@@ -5387,10 +5404,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5413,28 +5430,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -5447,7 +5464,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5476,7 +5493,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -5496,17 +5513,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5527,7 +5544,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5554,7 +5571,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5580,7 +5597,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5606,7 +5623,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5632,7 +5649,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5658,7 +5675,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5684,7 +5701,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5710,7 +5727,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5736,7 +5753,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5756,7 +5773,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5776,7 +5793,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5796,7 +5813,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5817,7 +5834,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5838,7 +5855,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5859,7 +5876,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5880,7 +5897,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5901,7 +5918,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5922,7 +5939,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5943,7 +5960,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5964,7 +5981,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5985,7 +6002,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6006,7 +6023,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6027,7 +6044,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6048,7 +6065,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6069,7 +6086,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6090,7 +6107,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6111,7 +6128,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6132,7 +6149,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6153,7 +6170,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6174,7 +6191,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6195,7 +6212,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6216,7 +6233,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6225,7 +6242,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6234,7 +6251,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6243,7 +6260,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6252,7 +6269,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6261,7 +6278,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6270,7 +6287,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6279,7 +6296,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6288,7 +6305,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6297,7 +6314,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6306,7 +6323,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6315,7 +6332,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6324,7 +6341,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6333,7 +6350,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6342,7 +6359,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6351,7 +6368,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6360,7 +6377,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6369,7 +6386,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6378,7 +6395,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6387,7 +6404,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6396,7 +6413,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6405,7 +6422,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6414,7 +6431,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6423,7 +6440,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6432,7 +6449,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6441,7 +6458,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6450,7 +6467,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6459,7 +6476,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6468,7 +6485,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6477,7 +6494,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
